--- a/Team-Data/2008-09/2-18-2008-09.xlsx
+++ b/Team-Data/2008-09/2-18-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="n">
         <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>0.593</v>
+        <v>0.585</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,40 +751,40 @@
         <v>35.9</v>
       </c>
       <c r="J2" t="n">
-        <v>79</v>
+        <v>78.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L2" t="n">
         <v>7.7</v>
       </c>
       <c r="M2" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.371</v>
+        <v>0.369</v>
       </c>
       <c r="O2" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P2" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.735</v>
+        <v>0.737</v>
       </c>
       <c r="R2" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S2" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T2" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U2" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V2" t="n">
         <v>12.9</v>
@@ -726,25 +793,25 @@
         <v>7.6</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y2" t="n">
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC2" t="n">
         <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
@@ -759,13 +826,13 @@
         <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -774,34 +841,34 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR2" t="n">
         <v>21</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV2" t="n">
         <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
@@ -816,7 +883,7 @@
         <v>15</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="n">
         <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>0.796</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="L3" t="n">
         <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.387</v>
+        <v>0.384</v>
       </c>
       <c r="O3" t="n">
         <v>20.1</v>
       </c>
       <c r="P3" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.78</v>
+        <v>0.776</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
@@ -908,37 +975,37 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -962,16 +1029,16 @@
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>16</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
@@ -980,13 +1047,13 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -995,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -1030,94 +1097,94 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="n">
         <v>32</v>
       </c>
       <c r="G4" t="n">
-        <v>0.407</v>
+        <v>0.396</v>
       </c>
       <c r="H4" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I4" t="n">
         <v>34.4</v>
       </c>
       <c r="J4" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M4" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N4" t="n">
         <v>0.364</v>
       </c>
       <c r="O4" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="P4" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.738</v>
+        <v>0.736</v>
       </c>
       <c r="R4" t="n">
         <v>10.7</v>
       </c>
       <c r="S4" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="T4" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="U4" t="n">
         <v>21</v>
       </c>
       <c r="V4" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Y4" t="n">
         <v>6.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.5</v>
+        <v>92.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.6</v>
+        <v>-1.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1126,10 +1193,10 @@
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1141,34 +1208,34 @@
         <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT4" t="n">
         <v>26</v>
       </c>
-      <c r="AT4" t="n">
-        <v>25</v>
-      </c>
       <c r="AU4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
       </c>
       <c r="AW4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX4" t="n">
         <v>17</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1177,7 +1244,7 @@
         <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -1227,37 +1294,37 @@
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K5" t="n">
         <v>0.45</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O5" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P5" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.789</v>
+        <v>0.784</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
         <v>42.2</v>
@@ -1272,25 +1339,25 @@
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Y5" t="n">
         <v>5.6</v>
       </c>
-      <c r="Y5" t="n">
-        <v>5.7</v>
-      </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1311,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>22</v>
@@ -1326,37 +1393,37 @@
         <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
       </c>
       <c r="AR5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
         <v>11</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA5" t="n">
         <v>22</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -1397,55 +1464,55 @@
         <v>51</v>
       </c>
       <c r="E6" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.804</v>
+        <v>0.784</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J6" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.475</v>
+        <v>0.472</v>
       </c>
       <c r="L6" t="n">
         <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.383</v>
+        <v>0.382</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="Q6" t="n">
         <v>0.752</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S6" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
         <v>12.9</v>
@@ -1454,34 +1521,34 @@
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
         <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
@@ -1490,31 +1557,31 @@
         <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM6" t="n">
         <v>4</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1529,22 +1596,22 @@
         <v>5</v>
       </c>
       <c r="AW6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY6" t="n">
         <v>4</v>
       </c>
-      <c r="AY6" t="n">
-        <v>6</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="n">
         <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>0.604</v>
+        <v>0.596</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1594,67 +1661,67 @@
         <v>38.2</v>
       </c>
       <c r="J7" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L7" t="n">
         <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.349</v>
+        <v>0.344</v>
       </c>
       <c r="O7" t="n">
         <v>17.8</v>
       </c>
       <c r="P7" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.819</v>
+        <v>0.821</v>
       </c>
       <c r="R7" t="n">
         <v>11.1</v>
       </c>
       <c r="S7" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U7" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V7" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
         <v>5.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA7" t="n">
         <v>19.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1666,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI7" t="n">
         <v>6</v>
@@ -1675,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
         <v>13</v>
@@ -1684,10 +1751,10 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1696,16 +1763,16 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS7" t="n">
         <v>8</v>
       </c>
       <c r="AT7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
@@ -1726,7 +1793,7 @@
         <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="n">
         <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
@@ -1785,10 +1852,10 @@
         <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O8" t="n">
         <v>23</v>
@@ -1797,7 +1864,7 @@
         <v>30.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R8" t="n">
         <v>10.3</v>
@@ -1809,13 +1876,13 @@
         <v>40.9</v>
       </c>
       <c r="U8" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V8" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W8" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>5.7</v>
@@ -1824,19 +1891,19 @@
         <v>5.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AB8" t="n">
         <v>103.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1854,7 +1921,7 @@
         <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1863,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="AM8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN8" t="n">
         <v>16</v>
@@ -1887,7 +1954,7 @@
         <v>18</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV8" t="n">
         <v>26</v>
@@ -1905,13 +1972,13 @@
         <v>25</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB8" t="n">
         <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>-0.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
@@ -2033,13 +2100,13 @@
         <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
         <v>27</v>
@@ -2048,13 +2115,13 @@
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO9" t="n">
         <v>28</v>
       </c>
       <c r="AP9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
@@ -2063,10 +2130,10 @@
         <v>18</v>
       </c>
       <c r="AS9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU9" t="n">
         <v>23</v>
@@ -2078,10 +2145,10 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -2122,58 +2189,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" t="n">
         <v>19</v>
       </c>
       <c r="F10" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="n">
-        <v>0.345</v>
+        <v>0.352</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J10" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L10" t="n">
         <v>6.6</v>
       </c>
       <c r="M10" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O10" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="P10" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R10" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S10" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T10" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U10" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V10" t="n">
         <v>14.8</v>
@@ -2188,25 +2255,25 @@
         <v>5.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>107.7</v>
+        <v>107.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="n">
         <v>24</v>
@@ -2215,19 +2282,19 @@
         <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="n">
         <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>14</v>
       </c>
       <c r="AM10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN10" t="n">
         <v>12</v>
@@ -2239,19 +2306,19 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
         <v>7</v>
       </c>
       <c r="AS10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV10" t="n">
         <v>17</v>
@@ -2263,13 +2330,13 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>22</v>
       </c>
       <c r="BA10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2391,13 +2458,13 @@
         <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
         <v>16</v>
@@ -2406,7 +2473,7 @@
         <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
@@ -2421,7 +2488,7 @@
         <v>18</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR11" t="n">
         <v>17</v>
@@ -2442,10 +2509,10 @@
         <v>24</v>
       </c>
       <c r="AX11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
@@ -2454,7 +2521,7 @@
         <v>18</v>
       </c>
       <c r="BB11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="n">
         <v>22</v>
       </c>
       <c r="F12" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" t="n">
-        <v>0.393</v>
+        <v>0.4</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
@@ -2504,7 +2571,7 @@
         <v>38.8</v>
       </c>
       <c r="J12" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.452</v>
@@ -2516,55 +2583,55 @@
         <v>21.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
       <c r="O12" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P12" t="n">
         <v>23.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R12" t="n">
         <v>11.1</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U12" t="n">
         <v>22.5</v>
       </c>
       <c r="V12" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W12" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X12" t="n">
         <v>5.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.3</v>
+        <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2573,7 +2640,7 @@
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>8</v>
@@ -2594,31 +2661,31 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS12" t="n">
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW12" t="n">
         <v>22</v>
@@ -2627,13 +2694,13 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>30</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -2668,61 +2735,61 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" t="n">
-        <v>0.236</v>
+        <v>0.241</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J13" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L13" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M13" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.346</v>
+        <v>0.343</v>
       </c>
       <c r="O13" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P13" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.751</v>
+        <v>0.754</v>
       </c>
       <c r="R13" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S13" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T13" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V13" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2731,31 +2798,31 @@
         <v>6.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>95</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.5</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
       </c>
       <c r="AF13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH13" t="n">
         <v>4</v>
@@ -2782,28 +2849,28 @@
         <v>27</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AQ13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
         <v>11</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2818,7 +2885,7 @@
         <v>25</v>
       </c>
       <c r="BB13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -2865,43 +2932,43 @@
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="J14" t="n">
-        <v>85.09999999999999</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.478</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.367</v>
+        <v>0.369</v>
       </c>
       <c r="O14" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="P14" t="n">
-        <v>26.9</v>
+        <v>26.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R14" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
         <v>13.6</v>
@@ -2913,25 +2980,25 @@
         <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
         <v>20.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>109</v>
+        <v>108.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -2940,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2949,19 +3016,19 @@
         <v>4</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>6</v>
@@ -2973,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2991,13 +3058,13 @@
         <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="n">
-        <v>0.278</v>
+        <v>0.283</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
@@ -3050,7 +3117,7 @@
         <v>34.6</v>
       </c>
       <c r="J15" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K15" t="n">
         <v>0.449</v>
@@ -3062,19 +3129,19 @@
         <v>13.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O15" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P15" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.752</v>
+        <v>0.755</v>
       </c>
       <c r="R15" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S15" t="n">
         <v>28.7</v>
@@ -3086,7 +3153,7 @@
         <v>16.7</v>
       </c>
       <c r="V15" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W15" t="n">
         <v>7.4</v>
@@ -3101,16 +3168,16 @@
         <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3131,7 +3198,7 @@
         <v>28</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>28</v>
@@ -3140,7 +3207,7 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
@@ -3155,7 +3222,7 @@
         <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT15" t="n">
         <v>27</v>
@@ -3170,13 +3237,13 @@
         <v>12</v>
       </c>
       <c r="AX15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>21</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>20</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" t="n">
         <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>0.528</v>
+        <v>0.538</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3235,7 +3302,7 @@
         <v>80.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L16" t="n">
         <v>6.9</v>
@@ -3244,31 +3311,31 @@
         <v>19.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O16" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P16" t="n">
         <v>22.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.744</v>
+        <v>0.741</v>
       </c>
       <c r="R16" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S16" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T16" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="U16" t="n">
         <v>19.9</v>
       </c>
       <c r="V16" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W16" t="n">
         <v>8.199999999999999</v>
@@ -3277,22 +3344,22 @@
         <v>5.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA16" t="n">
         <v>19.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3313,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3328,7 +3395,7 @@
         <v>29</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
         <v>27</v>
@@ -3337,13 +3404,13 @@
         <v>24</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU16" t="n">
         <v>26</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>25</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -3352,10 +3419,10 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY16" t="n">
         <v>6</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>5</v>
       </c>
       <c r="AZ16" t="n">
         <v>12</v>
@@ -3364,7 +3431,7 @@
         <v>27</v>
       </c>
       <c r="BB16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -3414,61 +3481,61 @@
         <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>81.40000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.449</v>
+        <v>0.451</v>
       </c>
       <c r="L17" t="n">
         <v>5.8</v>
       </c>
       <c r="M17" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O17" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="P17" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R17" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>41.5</v>
+        <v>41.2</v>
       </c>
       <c r="U17" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y17" t="n">
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC17" t="n">
         <v>0.4</v>
@@ -3489,13 +3556,13 @@
         <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3507,16 +3574,16 @@
         <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ17" t="n">
         <v>9</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS17" t="n">
         <v>21</v>
@@ -3525,19 +3592,19 @@
         <v>15</v>
       </c>
       <c r="AU17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
         <v>16</v>
       </c>
       <c r="AX17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
         <v>35</v>
       </c>
       <c r="G18" t="n">
-        <v>0.34</v>
+        <v>0.327</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3596,49 +3663,49 @@
         <v>36.9</v>
       </c>
       <c r="J18" t="n">
-        <v>83.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L18" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.342</v>
+        <v>0.335</v>
       </c>
       <c r="O18" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P18" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q18" t="n">
         <v>0.772</v>
       </c>
       <c r="R18" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S18" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U18" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V18" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y18" t="n">
         <v>6.4</v>
@@ -3650,19 +3717,19 @@
         <v>20.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.6</v>
+        <v>-3.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG18" t="n">
         <v>25</v>
@@ -3680,19 +3747,19 @@
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ18" t="n">
         <v>14</v>
@@ -3704,13 +3771,13 @@
         <v>18</v>
       </c>
       <c r="AT18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW18" t="n">
         <v>26</v>
@@ -3725,7 +3792,7 @@
         <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -3760,22 +3827,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="n">
-        <v>0.436</v>
+        <v>0.444</v>
       </c>
       <c r="H19" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I19" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J19" t="n">
         <v>80.2</v>
@@ -3784,34 +3851,34 @@
         <v>0.443</v>
       </c>
       <c r="L19" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M19" t="n">
         <v>20.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.38</v>
+        <v>0.383</v>
       </c>
       <c r="O19" t="n">
         <v>19.1</v>
       </c>
       <c r="P19" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R19" t="n">
         <v>11</v>
       </c>
       <c r="S19" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T19" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U19" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V19" t="n">
         <v>13.4</v>
@@ -3820,31 +3887,31 @@
         <v>6.9</v>
       </c>
       <c r="X19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y19" t="n">
         <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB19" t="n">
         <v>98</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.5</v>
+        <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3853,7 +3920,7 @@
         <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
@@ -3862,19 +3929,19 @@
         <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM19" t="n">
         <v>8</v>
       </c>
       <c r="AN19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
@@ -3883,10 +3950,10 @@
         <v>14</v>
       </c>
       <c r="AS19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU19" t="n">
         <v>28</v>
@@ -3898,7 +3965,7 @@
         <v>19</v>
       </c>
       <c r="AX19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY19" t="n">
         <v>17</v>
@@ -3913,7 +3980,7 @@
         <v>19</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -3942,64 +4009,64 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" t="n">
         <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>0.615</v>
+        <v>0.608</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="J20" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L20" t="n">
         <v>7.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.384</v>
+        <v>0.382</v>
       </c>
       <c r="O20" t="n">
         <v>18.7</v>
       </c>
       <c r="P20" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R20" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S20" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T20" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="U20" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V20" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
         <v>4.3</v>
@@ -4008,28 +4075,28 @@
         <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA20" t="n">
         <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -4038,10 +4105,10 @@
         <v>28</v>
       </c>
       <c r="AJ20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
@@ -4050,7 +4117,7 @@
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
         <v>21</v>
@@ -4065,7 +4132,7 @@
         <v>28</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
         <v>30</v>
@@ -4080,7 +4147,7 @@
         <v>10</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-2.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4238,7 +4305,7 @@
         <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>7</v>
@@ -4256,7 +4323,7 @@
         <v>8</v>
       </c>
       <c r="AV21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW21" t="n">
         <v>15</v>
@@ -4274,10 +4341,10 @@
         <v>29</v>
       </c>
       <c r="BB21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4399,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4420,7 +4487,7 @@
         <v>8</v>
       </c>
       <c r="AP22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ22" t="n">
         <v>13</v>
@@ -4438,13 +4505,13 @@
         <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW22" t="n">
         <v>24</v>
       </c>
       <c r="AX22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY22" t="n">
         <v>22</v>
@@ -4453,7 +4520,7 @@
         <v>14</v>
       </c>
       <c r="BA22" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" t="n">
         <v>39</v>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" t="n">
-        <v>0.736</v>
+        <v>0.75</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="J23" t="n">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.46</v>
       </c>
       <c r="L23" t="n">
         <v>10.4</v>
       </c>
       <c r="M23" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="N23" t="n">
         <v>0.396</v>
@@ -4524,19 +4591,19 @@
         <v>19.8</v>
       </c>
       <c r="P23" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.718</v>
+        <v>0.722</v>
       </c>
       <c r="R23" t="n">
         <v>10.1</v>
       </c>
       <c r="S23" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T23" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U23" t="n">
         <v>19.3</v>
@@ -4545,28 +4612,28 @@
         <v>14.1</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y23" t="n">
         <v>3.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA23" t="n">
         <v>22.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>102</v>
+        <v>102.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4581,13 +4648,13 @@
         <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4602,19 +4669,19 @@
         <v>11</v>
       </c>
       <c r="AP23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
@@ -4623,7 +4690,7 @@
         <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX23" t="n">
         <v>9</v>
@@ -4632,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" t="n">
         <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>0.509</v>
+        <v>0.519</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="J24" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.454</v>
+        <v>0.457</v>
       </c>
       <c r="L24" t="n">
         <v>4.2</v>
@@ -4703,10 +4770,10 @@
         <v>0.318</v>
       </c>
       <c r="O24" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="P24" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="Q24" t="n">
         <v>0.745</v>
@@ -4718,10 +4785,10 @@
         <v>29.8</v>
       </c>
       <c r="T24" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U24" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V24" t="n">
         <v>15</v>
@@ -4736,40 +4803,40 @@
         <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
         <v>27</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
         <v>14</v>
       </c>
       <c r="AK24" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ24" t="n">
         <v>26</v>
@@ -4793,19 +4860,19 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU24" t="n">
         <v>16</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>17</v>
       </c>
       <c r="AV24" t="n">
         <v>20</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
         <v>8</v>
@@ -4814,13 +4881,13 @@
         <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>13</v>
       </c>
       <c r="BB24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -4852,37 +4919,37 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" t="n">
         <v>23</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="J25" t="n">
-        <v>78.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.499</v>
+        <v>0.497</v>
       </c>
       <c r="L25" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M25" t="n">
         <v>16.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.381</v>
+        <v>0.379</v>
       </c>
       <c r="O25" t="n">
         <v>20.9</v>
@@ -4891,46 +4958,46 @@
         <v>27.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R25" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S25" t="n">
         <v>31.9</v>
       </c>
       <c r="T25" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U25" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="V25" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="W25" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA25" t="n">
         <v>22.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.8</v>
+        <v>105.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4945,10 +5012,10 @@
         <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
@@ -4960,22 +5027,22 @@
         <v>20</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>4</v>
       </c>
       <c r="AP25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ25" t="n">
         <v>20</v>
       </c>
       <c r="AR25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT25" t="n">
         <v>13</v>
@@ -4984,16 +5051,16 @@
         <v>6</v>
       </c>
       <c r="AV25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ25" t="n">
         <v>11</v>
@@ -5002,7 +5069,7 @@
         <v>7</v>
       </c>
       <c r="BB25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -5037,55 +5104,55 @@
         <v>52</v>
       </c>
       <c r="E26" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.635</v>
+        <v>0.615</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O26" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P26" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.764</v>
+        <v>0.761</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U26" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V26" t="n">
         <v>13.2</v>
@@ -5100,22 +5167,22 @@
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AA26" t="n">
         <v>21.2</v>
       </c>
-      <c r="AA26" t="n">
-        <v>21.3</v>
-      </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
         <v>7</v>
@@ -5130,28 +5197,28 @@
         <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>19</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>18</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,19 +5227,19 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW26" t="n">
         <v>21</v>
       </c>
       <c r="AX26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
@@ -5181,13 +5248,13 @@
         <v>17</v>
       </c>
       <c r="BA26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2</v>
+        <v>0.204</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5234,37 +5301,37 @@
         <v>36.1</v>
       </c>
       <c r="J27" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K27" t="n">
         <v>0.445</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M27" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O27" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="P27" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q27" t="n">
         <v>0.803</v>
       </c>
       <c r="R27" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S27" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="T27" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="U27" t="n">
         <v>19.9</v>
@@ -5276,25 +5343,25 @@
         <v>6.8</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z27" t="n">
         <v>23.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB27" t="n">
         <v>99.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5309,7 +5376,7 @@
         <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>12</v>
@@ -5327,10 +5394,10 @@
         <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
@@ -5345,10 +5412,10 @@
         <v>29</v>
       </c>
       <c r="AU27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW27" t="n">
         <v>23</v>
@@ -5366,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5497,10 +5564,10 @@
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM28" t="n">
         <v>7</v>
@@ -5521,10 +5588,10 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -5580,58 +5647,58 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" t="n">
         <v>21</v>
       </c>
       <c r="F29" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" t="n">
-        <v>0.375</v>
+        <v>0.382</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J29" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M29" t="n">
         <v>16.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O29" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P29" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="Q29" t="n">
         <v>0.828</v>
       </c>
       <c r="R29" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T29" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="U29" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V29" t="n">
         <v>13.2</v>
@@ -5640,28 +5707,28 @@
         <v>6.2</v>
       </c>
       <c r="X29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y29" t="n">
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.1</v>
+        <v>-2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
@@ -5673,7 +5740,7 @@
         <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
         <v>23</v>
@@ -5682,7 +5749,7 @@
         <v>11</v>
       </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM29" t="n">
         <v>21</v>
@@ -5691,10 +5758,10 @@
         <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,22 +5770,22 @@
         <v>30</v>
       </c>
       <c r="AS29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5727,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>2.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
         <v>12</v>
@@ -5861,7 +5928,7 @@
         <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5888,7 +5955,7 @@
         <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
@@ -6022,25 +6089,25 @@
         <v>-7.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
         <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
         <v>25</v>
@@ -6058,10 +6125,10 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
         <v>10</v>
@@ -6079,10 +6146,10 @@
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="n">
         <v>18</v>
@@ -6094,7 +6161,7 @@
         <v>28</v>
       </c>
       <c r="BB31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-18-2008-09</t>
+          <t>2009-02-18</t>
         </is>
       </c>
     </row>
